--- a/documents/测试用例/与AGV对接基础测试用例.xlsx
+++ b/documents/测试用例/与AGV对接基础测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\文档\国化智能\项目文档\青蛙王子AGV\青蛙文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04-Web\home\user\programs\FrogAgv\documents\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51895EFE-3E4F-417D-A2F8-E33B50DA1A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE563E4-42FE-4878-A61E-F7C5E9FFA67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,62 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A点上无容器，B点上无容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点上无容器，B点上有容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在A点执行容器入场-》下发一个A点到B点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B两点容器。在B上入场一个容器。在A点执行容器入场-》下发一个A点到B点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后，再下发B点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功，下发任务成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B点容器入场成功、A点容器入场成功、下发任务失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清空A、B两点容器。在A点容器入场-》下发一个A点到B点的任务-》B点容器入场-》下发一个B点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功，B点容器入场失败，A到B任务下发成功，B到A任务下发失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后，AGV小车把货架取走后，下发一个B点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B两点容器。在A点容器入场-》下发一个A点到B点的任务-》AGV小车取走A点的货架-》在B点容器入场-》下发一个B点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功，A到B任务下发成功，B点容器入场失败，B到A任务下发失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后，下发一个C点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后，AGV小车把货架取走后，下发一个C点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,67 +90,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下发一个A点到B点的任务后，下发一个B点到D点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后，下发一个C点到D点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发一个B点到A点的任务后，下发一个C点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点上无容器，B点上无容器，C点无容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B、C三点容器。在A点容器入场-》下发一个A点到B点的任务-》在C点容器入场-》下发一个C到A的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功，C点容器入场成功，C到A下发任务失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点上无容器，B点上无容器，C点无容器，D点无容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点上无容器，B点上无容器，D点无容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B、C三点容器。在A点容器入场-》下发一个A点到B点的任务-》AGV小车取走A点的货架-》C点容器入场-》下发一个C到A的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功，C点容器入场成功，C到A下发任务成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功，B点容器入场失败，下发B点到D点的任务失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B、D三点容器。在A点容器入场-》下发一个A点到B点的任务-》B点容器入场-》下发一个B点到D点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B、C、D四点容器。在A点容器入场-》下发一个A点到B点的任务-》在C点容器入场-》下发一个C点到D点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功。C点容器入场成功、C到D任务下发成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空A、B、C三点容器。在B点容器入场-》下发一个B点到A点的任务-》C点容器入场-》下发一个C点到A点的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B点容器入场成功、B到A任务下发成功。C点容器入场成功、C到A任务下发成功</t>
+    <t>在A点执行容器入场-&gt;下发一个A点到B点的任务</t>
+  </si>
+  <si>
+    <t>A点上无容器,B点上无容器</t>
+  </si>
+  <si>
+    <t>A点容器入场成功,下发任务成功</t>
+  </si>
+  <si>
+    <t>A点上无容器,B点上有容器</t>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后,再下发B点到A点的任务</t>
+  </si>
+  <si>
+    <t>A点容器入场成功,B点容器入场失败,A到B任务下发成功,B到A任务下发失败</t>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后,AGV小车把货架取走后,下发一个B点到A点的任务</t>
+  </si>
+  <si>
+    <t>A点容器入场成功,A到B任务下发成功,B点容器入场失败,B到A任务下发失败</t>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后,下发一个C点到A点的任务</t>
+  </si>
+  <si>
+    <t>A点上无容器,B点上无容器,C点无容器</t>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功,C点容器入场成功,C到A下发任务失败</t>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后,AGV小车把货架取走后,下发一个C点到A点的任务</t>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功,C点容器入场成功,C到A下发任务成功</t>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后,下发一个B点到D点的任务</t>
+  </si>
+  <si>
+    <t>A点上无容器,B点上无容器,D点无容器</t>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功,B点容器入场失败,下发B点到D点的任务失败</t>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后,下发一个C点到D点的任务</t>
+  </si>
+  <si>
+    <t>A点上无容器,B点上无容器,C点无容器,D点无容器</t>
+  </si>
+  <si>
+    <t>下发一个B点到A点的任务后,下发一个C点到A点的任务</t>
+  </si>
+  <si>
+    <t>清空A、B两点容器.在B上入场一个容器.在A点执行容器入场-&gt;下发一个A点到B点的任务</t>
+  </si>
+  <si>
+    <t>清空A、B两点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;B点容器入场-&gt;下发一个B点到A点的任务</t>
+  </si>
+  <si>
+    <t>清空A、B、C三点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;在C点容器入场-&gt;下发一个C到A的任务</t>
+  </si>
+  <si>
+    <t>清空A、B、C三点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;AGV小车取走A点的货架-&gt;C点容器入场-&gt;下发一个C到A的任务</t>
+  </si>
+  <si>
+    <t>清空A、B、D三点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;B点容器入场-&gt;下发一个B点到D点的任务</t>
+  </si>
+  <si>
+    <t>清空A、B、C、D四点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;在C点容器入场-&gt;下发一个C点到D点的任务</t>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功.C点容器入场成功、C到D任务下发成功.</t>
+  </si>
+  <si>
+    <t>清空A、B、C三点容器.在B点容器入场-&gt;下发一个B点到A点的任务-&gt;C点容器入场-&gt;下发一个C点到A点的任务</t>
+  </si>
+  <si>
+    <t>B点容器入场成功、B到A任务下发成功.C点容器入场成功、C到A任务下发成功</t>
+  </si>
+  <si>
+    <t>清空A、B两点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;AGV小车取走A点的货架-&gt;在B点容器入场-&gt;下发一个B点到A点的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,22 +552,22 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="60.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="22.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="60.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -613,157 +585,157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/documents/测试用例/与AGV对接基础测试用例.xlsx
+++ b/documents/测试用例/与AGV对接基础测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04-Web\home\user\programs\FrogAgv\documents\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE563E4-42FE-4878-A61E-F7C5E9FFA67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD694F-954C-40AB-BC8D-9A6EAF8CDB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>测试功能</t>
   </si>
@@ -39,17 +39,66 @@
     <t>预计结果</t>
   </si>
   <si>
-    <t>实际结果</t>
-  </si>
-  <si>
     <t>下发一个A点到B点的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A点上无容器，B点上无容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点上无容器，B点上有容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在A点执行容器入场-》下发一个A点到B点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B两点容器。在B上入场一个容器。在A点执行容器入场-》下发一个A点到B点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后，再下发B点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功，下发任务成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B点容器入场成功、A点容器入场成功、下发任务失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>清空A、B两点容器。在A点容器入场-》下发一个A点到B点的任务-》B点容器入场-》下发一个B点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功，B点容器入场失败，A到B任务下发成功，B到A任务下发失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后，AGV小车把货架取走后，下发一个B点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B两点容器。在A点容器入场-》下发一个A点到B点的任务-》AGV小车取走A点的货架-》在B点容器入场-》下发一个B点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功，A到B任务下发成功，B点容器入场失败，B到A任务下发失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后，下发一个C点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后，AGV小车把货架取走后，下发一个C点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,91 +139,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在A点执行容器入场-&gt;下发一个A点到B点的任务</t>
-  </si>
-  <si>
-    <t>A点上无容器,B点上无容器</t>
-  </si>
-  <si>
-    <t>A点容器入场成功,下发任务成功</t>
-  </si>
-  <si>
-    <t>A点上无容器,B点上有容器</t>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后,再下发B点到A点的任务</t>
-  </si>
-  <si>
-    <t>A点容器入场成功,B点容器入场失败,A到B任务下发成功,B到A任务下发失败</t>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后,AGV小车把货架取走后,下发一个B点到A点的任务</t>
-  </si>
-  <si>
-    <t>A点容器入场成功,A到B任务下发成功,B点容器入场失败,B到A任务下发失败</t>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后,下发一个C点到A点的任务</t>
-  </si>
-  <si>
-    <t>A点上无容器,B点上无容器,C点无容器</t>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功,C点容器入场成功,C到A下发任务失败</t>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后,AGV小车把货架取走后,下发一个C点到A点的任务</t>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功,C点容器入场成功,C到A下发任务成功</t>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后,下发一个B点到D点的任务</t>
-  </si>
-  <si>
-    <t>A点上无容器,B点上无容器,D点无容器</t>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功,B点容器入场失败,下发B点到D点的任务失败</t>
-  </si>
-  <si>
-    <t>下发一个A点到B点的任务后,下发一个C点到D点的任务</t>
-  </si>
-  <si>
-    <t>A点上无容器,B点上无容器,C点无容器,D点无容器</t>
-  </si>
-  <si>
-    <t>下发一个B点到A点的任务后,下发一个C点到A点的任务</t>
-  </si>
-  <si>
-    <t>清空A、B两点容器.在B上入场一个容器.在A点执行容器入场-&gt;下发一个A点到B点的任务</t>
-  </si>
-  <si>
-    <t>清空A、B两点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;B点容器入场-&gt;下发一个B点到A点的任务</t>
-  </si>
-  <si>
-    <t>清空A、B、C三点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;在C点容器入场-&gt;下发一个C到A的任务</t>
-  </si>
-  <si>
-    <t>清空A、B、C三点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;AGV小车取走A点的货架-&gt;C点容器入场-&gt;下发一个C到A的任务</t>
-  </si>
-  <si>
-    <t>清空A、B、D三点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;B点容器入场-&gt;下发一个B点到D点的任务</t>
-  </si>
-  <si>
-    <t>清空A、B、C、D四点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;在C点容器入场-&gt;下发一个C点到D点的任务</t>
-  </si>
-  <si>
-    <t>A点容器入场成功、A到B任务下发成功.C点容器入场成功、C到D任务下发成功.</t>
-  </si>
-  <si>
-    <t>清空A、B、C三点容器.在B点容器入场-&gt;下发一个B点到A点的任务-&gt;C点容器入场-&gt;下发一个C点到A点的任务</t>
-  </si>
-  <si>
-    <t>B点容器入场成功、B到A任务下发成功.C点容器入场成功、C到A任务下发成功</t>
-  </si>
-  <si>
-    <t>清空A、B两点容器.在A点容器入场-&gt;下发一个A点到B点的任务-&gt;AGV小车取走A点的货架-&gt;在B点容器入场-&gt;下发一个B点到A点的任务</t>
+    <t>下发一个A点到B点的任务后，下发一个B点到D点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发一个A点到B点的任务后，下发一个C点到D点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发一个B点到A点的任务后，下发一个C点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点上无容器，B点上无容器，C点无容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B、C三点容器。在A点容器入场-》下发一个A点到B点的任务-》在C点容器入场-》下发一个C到A的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功，C点容器入场成功，C到A下发任务失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点上无容器，B点上无容器，C点无容器，D点无容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点上无容器，B点上无容器，D点无容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B、C三点容器。在A点容器入场-》下发一个A点到B点的任务-》AGV小车取走A点的货架-》C点容器入场-》下发一个C到A的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功，C点容器入场成功，C到A下发任务成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功，B点容器入场失败，下发B点到D点的任务失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B、D三点容器。在A点容器入场-》下发一个A点到B点的任务-》B点容器入场-》下发一个B点到D点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B、C、D四点容器。在A点容器入场-》下发一个A点到B点的任务-》在C点容器入场-》下发一个C点到D点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A点容器入场成功、A到B任务下发成功。C点容器入场成功、C到D任务下发成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空A、B、C三点容器。在B点容器入场-》下发一个B点到A点的任务-》C点容器入场-》下发一个C点到A点的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B点容器入场成功、B到A任务下发成功。C点容器入场成功、C到A任务下发成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B点容器入场成功、A点容器入场成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下发任务成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A点容器入场成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B点容器入场成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，A到B任务下发成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B到A任务下发成功，任务卡死</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A点容器入场成功、A到B任务下发成功，C点容器入场成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C到A下发任务成功，A点取走后C点执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A点容器入场成功、A到B任务下发成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B点容器入场成功，下发B点到D点的任务成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B点容器入场成功、B到A任务下发成功。C点容器入场成功、C到A任务下发成功。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等A点容器离场后，第二条任务执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果20200425</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +378,44 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,12 +472,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -549,193 +769,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="60.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="3" width="22.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="60.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.25" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
